--- a/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
@@ -97,9 +97,6 @@
     <t>iaest-measure:viviendas-con-tendido-telefonico</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
   </si>
   <si>
     <t>URI-Provincia</t>
@@ -281,33 +281,33 @@
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -319,72 +319,72 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>34</v>

--- a/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
@@ -11,117 +11,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
-  <si>
-    <t>total-viviendas</t>
-  </si>
-  <si>
-    <t>viviendas-con-agua-corriente</t>
-  </si>
-  <si>
-    <t>viviendas-con-acceso-a-internet</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>viviendas-con-cuarto-de-aseo-con-inodoro</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>viviendas-con-disponibilidad-de-ducha-o-banera</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>viviendas-con-calefaccion</t>
-  </si>
-  <si>
-    <t>viviendas-con-agua-caliente-central</t>
-  </si>
-  <si>
-    <t>viviendas-con-evacuacion-de-aguas-residuales</t>
-  </si>
-  <si>
-    <t>viviendas-con-tendido-telefonico</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+  <si>
+    <t>Viviendas con cuarto de aseo con inodoro</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Viviendas con calefacción</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Municipio codigo</t>
+  </si>
+  <si>
+    <t>Viviendas con agua corriente</t>
+  </si>
+  <si>
+    <t>Viviendas con disponibilidad de ducha o bañera</t>
+  </si>
+  <si>
+    <t>Viviendas con evacuación de aguas residuales</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Viviendas con acceso a internet</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Viviendas con agua caliente central</t>
+  </si>
+  <si>
+    <t>CCAA codigo</t>
+  </si>
+  <si>
+    <t>Viviendas con tendido telefónico</t>
+  </si>
+  <si>
+    <t>Total viviendas</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-cuarto-de-aseo-con-inodoro</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-calefaccion</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-agua-corriente</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-disponibilidad-de-ducha-o-banera</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-evacuacion-de-aguas-residuales</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-acceso-a-internet</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-agua-caliente-central</t>
+  </si>
+  <si>
+    <t>iaest-measure:viviendas-con-tendido-telefonico</t>
   </si>
   <si>
     <t>iaest-measure:total-viviendas</t>
   </si>
   <si>
-    <t>iaest-measure:viviendas-con-agua-corriente</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-acceso-a-internet</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-cuarto-de-aseo-con-inodoro</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-disponibilidad-de-ducha-o-banera</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-calefaccion</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-agua-caliente-central</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-evacuacion-de-aguas-residuales</t>
-  </si>
-  <si>
-    <t>iaest-measure:viviendas-con-tendido-telefonico</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -248,78 +242,78 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
@@ -328,74 +322,69 @@
         <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-03-02010301-030097-A-TC-TM-TP.xlsx
@@ -190,17 +190,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -210,15 +215,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
